--- a/500all/speech_level/speeches_CHRG-114hhrg20175.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20175.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order and first of all I want to say to our distinguished witness I apologize--and to our guests who are here--that we do have a series of votes that have just been called.    But I would like to get my opening comments. My good friend and colleague, Karen Bass, the ranking member, will join us immediately after the votes and then we'll just proceed with the hearing.    But thank you for being here. Thank you for your patience with this delay while floor votes occur.    The administration has increased funding for democracy in governance in Africa in the 2017 proposed budget by more than $168 million from the actual Fiscal Year 2015 funding.    Many of us in Congress, realizing the importance of helping to facilitate free, fair and transparent elections in Africa, have long supported funding increases in this area. So it's very much welcomed.    However, there are questions concerning the effective use of funds. According to the administration's budget explanation for Fiscal Year 2017, ``priority countries in Africa are falling behind in democracy, human rights, and governance, showing the deepest declines compared to other regions in the past 5 years.''    The administration seems to have declined to intervene significantly in countries important to the U.S. interests such as Ghana, Equatorial Guinea, and Djibouti. Using Ghana as an example where the democracy funding request dipped slightly for Fiscal Year 2017, this hearing will examine U.S. electoral policy moving forward.    In recent years, there has been a troubling trend in Africa toward leaders changing constitutions to allow them to run for a third term, not previously provided for in the law.    The administration indeed has urged the Presidents of Burundi and Rwanda, for example, not to go for a third term. Neither leader heeded the call for restraint in this regard.    In Burundi, the third term has caused serious upheaval and violence, resulting in an attempted coup, killing dozens of people, a crackdown on civil liberties and nearly 484,000 people internally displaced or seeking asylum in other countries. This situation was caused by an election many felt was unacceptable.    Other leaders, taking the Burundi and Rwanda example, are trying to seek extensions of their term in office as well. For example, Democratic Republic of the Congo's President Joseph Kabila is faced with a Constitution that not only limits him to two terms but prevents him from changing the Constitution to accommodate extending his rule.    However, President Kabila's government is taking it slow in preparing for scheduled elections in November and is trying to undo the Constitution by requiring his continuing in office past the December 19 expiration of his mandate despite the constitutional restrictions.    There was violence caused by an earlier Kabila attempt to change the Constitution and it has been widely predicted including by our own U.S. Department of State that even greater violence would result if the Kabila term is extended despite the constitutional bar for a third term.    Even when election processes improve, problems can develop that cause mistrust which can lead to rejection of an election results and to more violence.    Such results don't fade away easily. In Ghana, extremely close elections in 2008 led to mistrust of the process, especially when one district had to revote and held the key to who would be President.    Four years later, advanced biometric technology failed, casting further doubt in the minds of some voters. As one of our witnesses today will share with us, there are concerns for the elections later this year based on an accumulation of suspicions from past elections, even though the 2008 and 2012 were not judged by international observers to be particularly problematic.    The case of Ghana points out key questions. When does the international community enter an election process and when does it exit? When do we know whether elections in a particular country need no further intervention? Does intervention have to be massive or are there tweaks in capacity building we can provide that will help make all the difference between an acceptable election or one in which voters refuse to accept the outcome?    Election support is not merely a matter of money. It involves faith in the transparency and the fairness of the election process itself. The international community cannot achieve such trust among voters on our own.    The country in question must experience a meeting of the minds between the ruling party and the government and the political opposition.    There must be clear effective rules for elections that create a level playing field for all candidates and parties involved in the election process. Whatever flaws there may be in any election, the losing candidate must accept a legitimate loss and prepare for the next election.    We look forward to hearing from our distinguished government witnesses about their strategies to effectively help governments hold free, fair, and transparent elections, and we look forward to our private witnesses as well to tell us how our strategies are working, what their recommendations are on how to make it even better.    Again, we do have votes and the subcommittee will stand in recess for a brief period of time.    [Recess.]</t>
   </si>
   <si>
     <t>412672</t>
   </si>
   <si>
-    <t>Daniel M. Donovan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Donovan [presiding]. I apologize to our witnesses and our guests. We just finished voting. Chairman Smith had another obligation. So my name is Dan Donovan. I'm a member of the Committee on Foreign Affairs and a member of the Subcommittee on Africa, Global Health, Global Human Rights, and International Organizatons and I'll be conducting the hearing.    Let me introduce our first panel of witnesses. Ambassador Bruce Wharton, United States Department of State. Ambassador Bruce Wharton joined the African Bureau as Principal Deputy Assistant Secretary in December 2015.    In his last assignment he served as the U.S. Ambassador to Zimbabwe from September 2012 to November 2015. He has served in several other positions with the African Bureau and in the Bureau of International Information Programs.    Ambassador Wharton entered the Foreign Services in 1985 and has served in U.S. Embassies in Argentina, Chile, Bolivia, South Africa, Guatemala, and Zimbabwe. In Africa he has also worked in Tanzania, Nigeria, Kenya, and Ghana.    Mr. Thomas Staal is currently the acting Assistant Administrator for the Bureau of Democracy, Conflict, and Humanitarian Assistance at USAID.    He has worked for USAID since 1988, beginning in Sudan as an emergency program officer, and has worked in the USAID regional office in Kenya managing food aid and project development throughout eastern and southern Africa.    Most recently, Mr. Staal served as the USAID Mission Director in Ethiopia. Before joining USAID he worked with World Vision as their country representative in Sudan.    Our third panelist is Mr. Steven Feldstein, U.S. Department of State. He is a Deputy Assistant Secretary of State in the Bureau of Democracy, Human Rights, and Labor where his primary responsibility is for work in Africa on international labor affairs and international religious freedom.    Previously, Mr. Feldstein served as the director of the Office of Policy in the Bureau of Policy, Planning, and Learning at USAID and served as counsel on the Senate Committee on Foreign Relations where he oversaw a portfolio that included oversight over all U.S. foreign assistance agencies, budgets and programs, State Department management and operations, and international organizations.    I welcome all our panelists today and I thank you for your testimony you're about to give. So we'll start. Mr. Wharton, if you would give your remarks for the 5 minutes, Ambassador. Thank you very much.    Ambassador Wharton. Thank you very much, Mr. Chairman, and members of the subcommittee, for the opportunity to testify today on democracy support strategies for Africa.    While the people and governments of Africa have made significant strides in recent years, they and we must still address the challenges associated with the closing of political space in certain countries.    Over the next few minutes I would like to talk about both the progress that's been made and where more work still remains to be done.    Our country has long been committed across administrations and party lines to partnering with the people and governments of Africa to promote democracy, human rights, and good governance.    Strengthening democratic institutions is in fact the first pillar of President Obama's 2012 Presidential Policy Directive for Africa.    Now, in the past year there have been political openings and electoral successes in countries ranging in size from Cape Verde to Nigeria and including Burkina Faso, Senegal and Benin.    I have had the honor of being part of U.S. delegations to several of the recent Presidential inaugurations. An election itself, though, is neither the beginning nor the end of democratic process.    Even the democratically-elected leader may choose to ignore term limits, may manipulate the electoral process for personal advantage or may impose restrictions that impede opposition.    We face such situations in Burundi, the Democratic Republic of the Congo, the Republic of the Congo, Rwanda, and Uganda, just to name a few. It's vital that the United States stay the course with policies and programs that foster democracy in the long run, no matter how great the challenge.    And democracy does not happen overnight. Instability, insecurity, corruption, and inequality stand in the way and that is why we must engage in aggressive diplomatic and assistance efforts to help resolve conflicts, implement peace agreements, support elections, and preserve democratic space and we have seen some successes.    In the Central African Republic, for example, the recent peaceful election of President Touadera and the continuing democratic transition are positive steps. But sustained international attention is essential to ending the cycle of violence and helping create long-term stability.    We are helping to build CAR's judicial structure including development of its special criminal court. We are focusing on community-level peace and reconciliation and expanding access to justice through legal training and mobile courts.    Nigeria's 2015 elections were historic not just for sub-Saharan Africa's most populous country and largest economy but for the entire continent.    We work very hard up front at the highest levels of the administration to impress upon all parties the need for an election that was free, fair, credible, and peaceful and this is what Nigeria delivered.    People showed up early to vote, stayed late to ensure their votes were counted, and ultimately elected a new government. This was the first peaceful democratic transfer of power to an opposition party in Nigeria in history and U.S.-Nigerian relations are stronger today than they have been in many years.    Now we stand ready to support the commitments Nigeria made this month at the UK Anti-Corruption Summit on issues such as beneficial ownership, fiscal and tax transparency, asset recovery and open contracting.    Opportunities and challenges abound. No fewer than 16 African countries have national elections this year. We will continue to support regular democratic transitions of power and speak out against those in power who seek to change constitutions to extend their own tenure.    Regular democratic transitions provide opportunities for Africans to participate in the political process and hold their governments accountable while contributing to the stability across the continent.    Transparent and credible elections help prevent feelings of injustice and alienation that can lead some to extremism and violence. In advance of elections, we support programs to counter violence and promote reconciliation, working with leaders from diverse political, religious, and ethnic groups to promote tolerance, respect, and reform. It is clear that those investments pay dividends.    We greatly appreciate the subcommittee's recognition of the fundamental importance of democracy in Africa and again ask your help in supporting our relevant funding requests.    We are working to ensure that the fiscal 2016 allocations for democracy, rights, and governance in Africa reflect the most strategic allocation of scarce resources. We know the challenges are great but believe that the comprehensive approach we are pursuing is making progress and this will ultimately benefit the people of the United States as well as the people of Africa.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Staal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Staal. Thank you, Chairman Donovan, members of the subcommittee. Thank you for the opportunity to appear before you today.    As part of our mission to end extreme poverty and promote democratic resilient societies, USAID is a leader in democracy assistance around the world including in Africa.    Several countries saw progress in the conduct of elections since the subcommittee held a hearing on this subject last year including in Nigeria, Cote d'Ivoire, Burkina Faso, and the Central African Republic.    Many national and regional institutions have improved their capacity to facilitate credible elections including electoral bodies we supported in Nigeria and Cote d'Ivoire. Citizens are more engaged and connected than ever.    With our support, domestic election observers are leveraging innovative technology and carrying out advanced parallel vote tabulations--PVTs--to confirm election results.    In Nigeria, we trained 3,000 domestic monitors to do PVTs and also in Zambia and Cote d'Ivoire. Yet, Africa still faces important challenges. The youth desperately want the chance to have a say in their future. But several African leaders refuse to pass the baton.    The average age of the 10 oldest African leaders is 78\\1/2\\ years old while the average age of an African citizen is just 19\\1/2\\.    The trend of abolishing or extending term limits continues and incumbents are employing tactics to create an uneven playing field long before they face the election.    Leaders are, unfortunately, sharing worst practices including using surveillance technologies and imposing complex legal and fiscal restrictions on civil society and the media.    As more citizens go online, authorities are restricting Internet access, as we saw last week during Uganda's Presidential inauguration. Recent crackdowns like the ones we've seen in Burundi, Uganda and the Democratic Republic of the Congo are not only a threat to democracy but to regional security.    For decades, USAID has supported African reformers and citizens who seek to promote good governance and democratic processes. Our support helps build the enabling conditions for credible elections to take place--strong judiciary and legislature, competitive parties, a free press and free Internet and an engaged civil society.    These efforts would not be possible without our partners including those testifying later today and our local African partners play a critical role in sustaining democratic gains as well.    Our strategic approach to electoral assistance is informed by several lessons learned over the last number of years.    First, USAID's electoral investments are tailored to the specific political context in and out of the country and informed by long-term partnerships with the host government and civil society to support the foundations of a democratic movement and a democratic government.    For instance, the positive impact of our electoral efforts in Nigeria and Zambia were the result of many years of sustained engagement in broader democracy assistance in both countries.    USAID's democracy officers across our missions in Africa help us maximize the opportunity to expand democratic gains and overcome challenges.    Second, our long-term electoral assistance is coupled with flexibility to respond to unforeseen challenges and windows of opportunity. For example, in Guinea's elections we quickly mobilized our elections and political processes funds to keep reporters broadcasting the vote count. This reassured the public and opposition parties that the process was fair.    Third, our early and robust conflict mitigation efforts have made a difference in averting electoral violence. For example, we supported the West Africa Network for Peace Building's early warning system to mitigate trigger points for electoral violence, for instance, in Burkina Faso.    In Cote D'Ivoire, USAID's Office of Transition Initiatives mobilized a successful arts campaign to promote peaceful political participation and in Nigeria, we integrated conflict mitigation across all of our multi-year programs.    And fourth, we proactively empower political parties, civil society and the media to combat efforts by incumbents to close the space for political engagement.    As part of President Obama's Stand With Civil Society Initiative we are creating a hub for African civil society to share tactics and successes to overcome common restrictions that they face.    Our global Information Security Coalition has trained and mentored African organizations and individuals in digital and mobile security.    And then, finally, we coordinate closely with our diplomatic and donor partners to maximize impact as we did in Nigeria to ensure that displaced populations could vote and CAR to promote local peace building before the elections.    So as we look ahead, we will seek to sustain democratic gains in Ghana, in Zambia, and other countries; promote peaceful and inclusive elections, in Kenya; and encourage a timely and credible election timetable in the DRC, in partnership with democratic reformers.    Thank you very much and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you very much for your opening statement, Mr. Staal.    The Chair recognizes Mr. Feldstein for an opening statement.</t>
   </si>
   <si>
-    <t>Feldstein</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Feldstein. Thank you, Mr. Chairman, Ranking Member Bass and members of the subcommittee for the opportunity to testify today.    Advancing democracy in Africa is a top priority for the administration. In the last year we have seen significant democratic advances in several countries.    Nigeria, for example, held successful elections last year that led to the country's first democratic transition between parties since the end of military rule.    Similarly, I just returned from a trip to Burkina Faso and the Central African Republic where both countries elected reform-minded Presidents. Each country now has a moment of opportunity to enact bold reforms and build democratic foundations.    Despite these positive developments, democracy in other parts of Africa has deteriorated. In too many places the pre-electoral environment and the space available for civic participation remains restrictive and flawed.    Too many entrenched leaders continue to manipulate their countries' constitutions, judiciaries and electoral processes to indefinitely extend their time in office.    They systematically thwart citizens' rights to choose their leaders without pressure or fear and those who protest in the street are arrested, detained, tortured and beaten.    Recent events in Uganda illustrate how a government can curb fundamental freedoms and eviscerate the credibility of an electoral process. Leading up to and following the February 18th elections, the Government of Uganda harassed and arrested opposition supporters, restricted media, and pressured civil society.    During the contest itself, Uganda blocked social media and limited communications. In the days following the elections, security forces held opposition candidate Besigye under house arrest for 42 days. The government arrested Mr. Besigye again last week, the day before President Museveni's inauguration.    He has reportedly been charged with treason and transferred to a maximum security prison in part because of his demand for an independent international audit of the election.    Uganda has banned all live reporting of opposition party protests and arrested dozens of others. The government has also put forward a bill that would give it outright power to control communications.    We have repeatedly urged the government to protect and preserve the basic freedoms of citizens and will continue to do so.    I recently visited Burkina Faso, which is an example of a country where a leader's overreach led to unrest and ultimately his removal from power but also where we are partnering with new leadership to chart a more democratic way forward.    A vibrant civil society led by an energized youth movement of artisan musicians--Le Balai Citoyen or Citizen's Broom--broke 27 years of one-man rule and gave rise to the country's first democratic elections since 1978.    As Burkina Faso takes a step forward, other leaders in the region continue to undermine democracy by changing constitutions and using additional means to extend their stay in office.    For example, Rwanda President Paul Kagame has repeatedly stated his commitment to respect constitutional term limits and to mentor a new generation of leaders. We were deeply disappointed when earlier this year Kagame announced his intent to stand for a third term and held a snap constitutional referendum to cement this decision.    In making this choice, he missed a significant opportunity to deepen democracy in Rwanda and demonstrate global leadership.    The violence currently afflicting Burundi is a revealing example of how anti-democratic policies, namely violating the Arusha Accords by running for a third term, can rapidly lead to widespread human rights violations, civilian casualties and increased risk of mass atrocities.    The ongoing crisis in Burundi has resulted in hundreds of lives lost and over 260,000 refugees fleeing the country. Burundi has experienced 10 years of progress in reconciliation and development but is now deeply destabilized and struggling with a crumbling economy.    Burundi is a cautionary tale for the unfolding political crisis in the neighboring Democratic Republic of the Congo. According to the DRC's Constitution, the President is limited to two terms in office.    Elections are scheduled for November 2016 at which point the DRC should experience its first democratic transition in power which would mark a monumental step toward solidifying the DRC's fragile democratic progress.    Instead, President Kabila is delaying elections through a strategy of ``glissement,'' or slippage, and refusing to announce his intention to step down at the end of his term.    The government continues to undermine the democratic process by harassing, arresting and intimidating civil society and opposition leaders.    Security forces are increasingly willing to use excessive force including against peaceful protestors. This combustible combination threatens the security of the DRC and the broader stability of central Africa.    We believe that officials within the DRC Government have the individual responsibility to uphold human rights. We have repeatedly made clear that the U.S. is prepared to impose targeted sanctions against those responsible for human rights violations or propagating violence and we do believe the voices of the Congolese people should determine the future of the Congo.    I'd like to highlight a final issue: Fighting corruption and kleptocracy. In too many countries, the rent-seeking opportunities of elected office provide a lucrative incentive for entrenched leaders to steal from state coffers and cling to power.    Unfettered access to state resources personally enriches rulers with ill-gotten gains and provides leaders with the means to buy the loyalty needed to sustain power.    In conclusion, we will continue to advance a democracy strategy with a strong emphasis on respect for the rule of law, human rights and civil society.    To be successful, we need sufficient resources to support our efforts and we appreciate your support.    Thank you for the opportunity to address the committee today and I look forward to your questions.</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chair.    I want to follow up on a couple of questions with Mr. Staal.    The chair was asking you questions about some of the contracts and all democracy related and I just wanted to ask you if we give any contracts to for-profit organizations to help with democracy and election U.S.-based and also do we provide any contracts to indigenous groups in various countries where we're working?</t>
   </si>
   <si>
@@ -205,9 +190,6 @@
     <t>412604</t>
   </si>
   <si>
-    <t>Curt Clawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clawson. Lost in thought. From a 30,000 foot level, seems to me that assistance for the continent for medical care: Ebola, malaria, all the mosquito-borne stuff--sounds like that's something America would do. Europeans step up. I like that. Anything that could protect property rights and therefore induce investment. That sounds like a long putt but good idea because if we don't get investment because everybody just makes off with the cash the average person is never going to get a lot better life. I think you all agree with that too.    American money for elections, I remember living in Europe and in France in the 1990s and looking down at the continent. I remember doing business on the continent and always saying what a mess in terms of elections. Human rights, kleptocracy.    Do we get our bang for our buck on that part of it? If I said to you all show me the money we spent in the 1990s, Ambassador--we spent a lot of money in the 1990s in places that aren't any better and sometimes worse, right? Am I right or wrong about that?    Are we really getting better, given all the American tax money? No one likes a zero return on investment. What matters to me is a net gain and I feel like we do net gain on healthcare and other direct assistance for people that really need it.    But I'm not so sure that in the dictators we've supported or elections that we've tried to help that we really get a direct return on that. Am I right or wrong? And I'm sure you're going to tell me I'm wrong and I'll accept your answer.    Ambassador Wharton. Congressman, I would never tell you that you were wrong but I could beg----</t>
   </si>
   <si>
@@ -229,34 +211,22 @@
     <t xml:space="preserve">    Mr. Clawson. Agree with all that. Just hope we get it right. Because if we support the bad guys it's the big men or the strong men, they make off with the cash then you got a whole bunch of people that aren't getting food and blame it on the U.S. because we're propping up crooks and I don't think that helps us either.    So, you know, this is a tough task you all got. Humanitarian, private property, investment--I'm all for that. Thank you. I yield back.</t>
   </si>
   <si>
-    <t>Nackerdien</t>
-  </si>
-  <si>
     <t>director for Africa in Washington, DC.    Before returning to headquarters, Mr. Tomaszewski spent several years living on the African continent and managing various projects for IRI, focussing on political party strengthening, local governance, and civil society development, youth and gender initiatives and civic education in many African countries. He has also worked for two Members of Congress including on their campaigns.    Mr. Nii Akuetteh serves as the founding executive director of the African Immigrant Caucus. He has lived in Nigeria and contributed to the strengthening of democracy across West Africa.    He has also founded the Democracy and Conflict Research Institute, an NGO that focuses on fighting dictatorship and repression in Africa. Mr. Akuetteh worked on a anti-apartheid movement in the U.S., which led to the sanctions imposed against apartheid South Africa.    He has taught at Georgetown University and served as the editor of a quarterly journal on U.S. relations with Africa and the Caribbean. Gentlemen, thank you.    I now invite our first witness, Mr. Nackerdien, to give his opening statement.    Mr. Nackerdien. Thank you. Mr. Chairman, on behalf of the International Foundation for Electoral Systems, I deeply appreciate this opportunity to discuss U.S. electoral support in sub-Saharan Africa.    Since 1997, IFES has worked in more than 145 countries worldwide to support inclusive citizen participation and credible elections. In many parts of the world, IFES works with its partners, IRI, and NDI, and the Consortium for Elections and Political Process Strengthening, commonly known as CEPPS, on democracy, human rights, and governance programming.    With support from USAID and several international partners, IFES has supported electoral processes across the subregion with 11 active programs in Burkina Faso, Cote d'Ivoire, Guinea, Kenya, Liberia, Mali, Nigeria, Tanzania, Uganda, Zambia, and Zimbabwe.    Mr. Chairman, in the last decade policy makers worldwide have come to understand that elections are much more than just election day and this has resulted in an important shift in the policy process.    I draw your attention to one of the poster boards that I've brought along, particularly the colored wheel. It's commonly referred to as the electoral process and today we understand the process to break down into three broad phases--namely, the pre-electoral, the electoral, and the post-electoral period.    Typically, this process often runs 3 to 5 years and is a lengthy endeavor. Mr. Chairman, elections have been described as the biggest logistical exercise a country can undertake during peacetime.    In most African countries, this exercise is done by a single election management body operating independently from party influence.    If one takes the example of Nigeria, which is the poster board just being turned right now. For the 2015 polls the Independent National Election Commission employed more than 12,000 permanent members of staff and more than 700,000 temporary staff.    All of these helped serve more than 6 to 8 million citizens that had to be registered, that had to be verified and they had to cast a vote on election day.    This huge logistical and political exercise cannot be executed overnight. INEC was preparing for this since 2011, 4 years in the making across the electoral cycle.    This work was done in close partnership with organizations like IFES and all this occurred under the threat of attacks by Boko Haram.    Mr. Chairman, IFES believes the following four areas are pivotal when it comes to election assistance. Number one, due to the complexity of organizing an election, targeted resource support must take place early in the electoral cycle--several years before election day.    Number two, just as we combat extremism on a regional basis, so we should invest regionally in capacity building and building in particular election networks among election professionals.    Number three, working with civil society is equally essential. Civil society plays an important role in the electoral cycle not only for carrying out civic and voter education activities but also for holding governments and electoral institutions accountable.    Number four, in recent years DRC funding has either been redirected toward other priorities or has been increasingly divided across smaller sub parts, leaving decreasing investments for election and political process programming.    IFES believes that the U.S. Government should reverse this trend, amplifying investments in election assistance as a cost effective way to pursue additional development objectives.    Mr. Chairman, the electoral cycle approach can make election international assistance seem never ending. However, three critical points of exit or graduation from support do exist.    Technical sustainability is considered the easiest to achieve. It describes a time when a country requires no further external assistance for the conduct of elections.    Financial sustainability is the second component and the second hardest to achieve. This is achieved only when the funds for elections are derived from in-country sources. And lastly, political sustainability is the most difficult to achieve.    It is based on the legitimacy of the entire process as well as the institution when both the outcome and the process are viewed as credible by all stakeholders both foreign and domestic.    Mr. Chairman, a number of critical upcoming elections in Cote D'Ivoire, the Democratic Republic of the Congo, Gambia, Ghana, Kenya, and Zambia will help shape democracy on the continent.    We respectfully recommend that the U.S. Government prioritize electoral assistance that is locally contextualized, is inclusive of women, people with disabilities, ethnic and religious minorities and other underrepresented groups, develops local expertise and consistently invests early and throughout the electoral cycle.    Such assistance will not only facilitate Africa's navigation of very difficult times but might prove foundational to improve development outcomes in women's empowerment, health, economic growth, and food security.    Mr. Chairman, in conclusion, thank you for this opportunity to testify. On behalf of IFES we are honored to partner with the U.S. Government and Congress, international aid organizations, our CEPPS partners, and of course the people of Africa in support of a more democratic and prosperous continent. I'm happy to answer any questions stemming from my testimony. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, sir.    The Chair recognizes Mr. Merloe for a 5-minute opening statement.</t>
   </si>
   <si>
-    <t>Merloe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Merloe. Thank you, Chairman Donovan and Ranking Member Bass. I'd like to also thank Chairman Smith for his opening remarks which demonstrate the leadership of this subcommittee in expressing the concerns of the American people for the development of democracy and honest elections in Africa.    Our time is short so I'd like to start with one thing that illustrates the points that I would like to make today. Two weeks ago I was the fortunate party to an exchange between former President Obasanjo of Nigeria and Mr. Kofi Annan, and I could summarize it more or less as follows.    It's not so much that poor elections give a bad name to democracy as it is that political violence and undemocratic practices give elections a bad name.    That quip encapsulates two of the most fundamental things about elections as far as I can see. The first is it captures the essence of elections--the two purposes that are interrelated--that they should resolve peacefully the competition for governmental office and political power. And, they should provide the citizens with the avenue, the vehicle, through which they express their will about who is going to have the authority to legitimately occupy governmental offices.    These are not easy things, particularly in countries that have less than a longstanding democratic history and that have a proclivity among the political competitors toward using political violence to achieve their goals.    We see that too often in Africa and around the world. Elections that are democratic really establish public confidence, and they also reduce and mitigate the potentials for political conflict. In that respect they help the realization of political rights of sovereign people.    They also are important for international peace and security, and both of these are vital to the interests of the American people and people around the world, which is why today's hearing I think is so important to public concern.    The second point that that quip illustrates is that elections are all about context. As you know, elections really are a barometer of the political climate in a given country as is illustrated even in our own circumstance.    Elections are multi-dimensional reflections of social and political dynamics within a country, and in that sense electoral assistance should help to infuse democratic political culture.    Three principals in electoral assistance are very important then to encapsulate. The first is inclusiveness. Political systems and electoral processes should help to guarantee universal and equal suffrage. They also should move political systems beyond winner take all politics and give the opposition, the losers, a stake in sustaining and building effective governance.    The second principle is transparency. People have a right to general elections. They also have a right to know that their elections are genuine, and that requires that there be access to key political processes, key electoral processes and the data which are generated by them, so that they can independently verify for themselves the integrity of elections.    And the third principal is accountability. There has to be, to be credible, accountability in election administration, in political competition and also in the electoral justice system so that the competitors who have a grievance have a reason to turn to peaceful redress rather than to actions that might lead to violence.    These principles reinforce the potentials for sustained and positive democratic progress. They should be signposts for our engagements. Strengthening them should be a means of evaluating our success.    In my written statement I mention three countries that illustrate how these principles have been integrated into electoral assistance in recent years.    In particular, Kenya, Cote d'Ivoire, and Nigeria stand out. There are many others but they are worthy of consideration. I won't mention details here, but I will be happy to go into during questions.    They each give positive examples of where U.S. support was complemented by assistance from other nations from the EU, the U.N. and others, and as my colleague from IFES mentioned, they each illustrate early targeted engagement, and they each illustrate that follow-up made a big difference.    Mr. Chairman, not all countries receive adequate funding to address the needed and pressing causes around elections. Democracy and governance funding has faced several years of cutbacks, as you well know--particularly in Africa which was reduced by more than 40 percent last year.    Those cuts have impacted the ability to respond to requests to monitor elections, to help develop civil society and political parties and to strengthen the fragile parliaments in those countries.    Hopefully, these cuts can be restored in Fiscal Year 2016 and beyond as Congress has sought to do through the omnibus appropriations bill.    Citizens across the world have been putting themselves on the line, demanding honest elections and responsible and responsive governance. They have been asking for our assistance which demonstrates that democracy is coming--the demand for it is coming--from within. It's not being imposed.    A number of cost-effective means of engagements have proven to be effective in promoting credible peaceful elections in Africa. In my written statement I identify 10 of those, and let me please highlight three this afternoon.    The first is supporting indigenous efforts to remove barriers to political participation of women, including young women, young men and disabled people and other populations.    Second is building cohorts of citizen election monitoring experts who can move across borders and through the regions, helping each other, building the impartiality and the systematic nature of election monitoring.    As was mentioned by our colleagues from USAID, parallel vote tabulations--that is, an independent verification using statistical methods of election day processes and the vote count--have been critical in reducing tensions around elections--the potential for violence, and in building public confidence in elections. That's one illustration.    But, of course, the voter registry in other areas are growingly important to verify as well.    The third is to advance principles and standards through networks of the EMBs, election monitoring organizations, political parties and others, including through open electoral data and other principles that reinforce the integrity of elections.    Constitutional issues that have been mentioned concerning the term limits, the dispersing of powers among branches of government also are important to give people stakes and to be inclusive in governance.    All of these issues are related to circumstances where power is abused, where decks are stacked, where corruption subverts government's ability to improve citizens' lives, and these turn citizens away from government toward apathy, toward authoritarianism and toward extremism.    It's therefore, in conclusion, in our common interest, to help homegrown efforts to address electoral integrity.    Mr. Chairman, among the numerous elections in Africa that are on the horizon, I would highlight five that merit further consideration perhaps in questions.    Zambia and Ghana, which have been mentioned. I'm departing on Friday for Zambia. I'm going later in the month with Mr. Kofi Annan to Ghana because of his concerns around developments in that country. Cote d'Ivoire and Kenya, where we have invested so much, where electoral violence has cost the people so much, and where these investments really can be threatened--particularly in Kenya with the crisis that's been developing.    And of course, in the Democratic Republic of the Congo, where in a sense a perfect political storm has been brewing, as been mentioned by my colleagues earlier.    In all of these countries, developing democratic political processes is key to achieving credible peaceful elections, and engagements that promote inclusiveness, transparency and accountability must be tailored to their context. Those principles are central for successful democracy support strategies in Africa.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Merloe.    The Chair now recognizes Mr. Tomaszewski for a 5-minute opening statement.</t>
   </si>
   <si>
-    <t>Tomaszewski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tomaszewski. Chairman Donovan, Ranking Member Bass, thank you for this opportunity to testify before you today on effective democracy assistance on the African continent.    IRI currently works in 14 sub-Saharan African countries with grants from USAID, State Department, and the National Endowment for Democracy.    IRI is also a partner of the CEPPS consortium, which you've heard about today. As a former country director for IRI's Kenya office and a deputy country director in South Sudan and Egypt, I've seen firsthand the impact of democracy assistance. Direct impact.    Mr. Chairman, Africans today are largely committed to democracy over other forms of government. According to a 2014 analysis, Biafra barometer, 7 in 10 Africans prefer democracy and a proportion of those rejecting alternatives rose steadily over the past decade.    African nations that remain undemocratic grappled with protracted conflict, transnational migration, corruption and leaders who, despite the outward appearance of being democratic, maintain their hold on power to the detriment of their population.    We must fully appreciate the link between failures of governance, refugee flows and the draw of extremist groups like ISIS, al-Shabaab, Boko Haram across the continent. A secure and stable Africa is of paramount national security to the United States.    The development of functional and institutionalized democratic systems is the only way to ensure that in the long term African countries will be equipped to meet the needs and expectations of their rapidly growing populations.    Nigeria, for example--and it's an example we've talked a lot about today--is of great strategic importance to the United States. The country's 2015 elections are a good case study indeed for effective U.S. democracy assistance.    Since Nigeria's 1999 return to citizen rule, IRI and its CEPPS partners have implemented DRG programs to strengthen capacity of the ruling and opposition parties, election management bodies, civil society, the media and, most importantly, the voters.    In the end, and despite some of its shortcomings, the election resulted in the peaceful handover of power from the incumbent President Jonathan to the now-President Buhari.    Mr. Chairman, the importance of this outcome for Africa's most populous country cannot be overstated. This peaceful transfer of power was not the result of a single election but a series of regular and sustained electoral contests for President that enabled the system to mature and become more democratic over time.    U.S. assistance through IRI, NDI, IFES, and our local partners has made a significant contribution to this successful outcome.    Mr. Chairman, in spite of these successful programs, however, the environment in which we operate--our organizations--including the political and operating context, funding levels and administrative landscape presents substantial challenges.    Our experience shows that DRG funding for Africa ramps up in advance of elections. Of IRI's current USAID and State Department funded programs in Africa, 80 percent focus substantially on support to electoral processes.    In each case, funding for the inner electoral period is uncertain. Elections are seminal events indeed in democratic societies, and we must recognize that fundamental democratic deficits in political systems lie in the day-to-day business of governments and their relationships with citizens between elections.    Where democracy assistance is limited to electoral processes, the funding often becomes available to implementers late in the pre-election period. For instance, in Tanzania the CEPPS partnership received funding in June 2015, only 5 months prior to the October 2015 elections.    Similarly, in Uganda, where we've just had a very interesting election, the CEPPS partners received funding in late May 2015 for February 2016 elections. In both cases, DRG support in the post-election period has not yet been determined, though it is critically needed for both countries, I think we would all agree.    Furthermore, over the last few years, IRI has experienced firsthand the realities of a challenging funding landscape. DRG programs account for only 4.7 percent of overall foreign assistance.    Total U.S. Government support for DRG programs has been on the decline, falling by 38 percent between 2009 and 2015, with Africa receiving a 44 percent cut during that period, according to an analysis by InterAction.    At this important juncture in Africa's development, now is the time to reinforce our commitment to resilient democracies by funding DRG programs at robust levels.    Finally, and this is something that's been commented on already, selecting the appropriate procurement mechanism for DRG awards is an essential component to achieving impactful sustainable results.    USAID has released a revised ADS Chapter 304 and we understand we'll be providing USAID employees with amplifying guidance on the applicability of ADS 304 to DRG awards.    We commend USAID for taking this action and urge that USAID Missions implement the new regulations as intended and that both USAID and Congress conduct applicable oversight.    Mr. Chairman, in his historic 1982 Westminster speech--and I have to talk about President Reagan--and at the height of the Cold War, President Ronald Reagan said of democracies, ``Day by day, democracy is proving itself to be a not at all fragile flower.''    I share President Reagan's optimism that with effective U.S. assistance, IRI and its partners, can have a large impact in consolidating democracy in Africa.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Tomaszewski.    The Chair now recognizes Mr. Akuetteh for an opening statement.</t>
-  </si>
-  <si>
-    <t>Akuetteh</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Akuetteh. Thank you very much, Chairman Donovan and Ranking Member Bass. I really appreciate not just being included in this panel but as always for all the work that this committee and subcommittee does.    This time, particularly, I'm extremely happy for two reasons--because of the focus on democracy and U.S. democracy assistance programs in Africa it's very dear to my heart and, of course, I have been included to talk a little bit more about the country where I was born--Ghana.    Now, Ghana has enjoyed a lot of kudos and praise, particularly when it comes to elections and turning over power peacefully to parties that are out of power who win elections and I think those kudos are well earned.    The question that has been raised, especially when it's been mentioned that DRG programs have been cut, is that there have been times when the thinking is that Ghana does a good job and therefore U.S. assistance should focus on more challenged countries on the continent.    It is true there are countries that are not doing as good a job. But I am here to make the case why attention should not be shifted from Ghana and where it has been shifted it should be refocused back particularly for the upcoming elections which happen a day before the U.S. elections in November. Ghana votes on November 7.    And there are a couple of reasons that I want to cite. In my own lifetime, I have seen political violence in Ghana in the early 1960s and 1970s and therefore nobody should think that electoral political violence Ghana is immune to those. They are not.    What will make them immune is good processes and transparency. Now, when it comes to what are the actual reasons for focusing and looking at Ghana now, which is what I was asked to address, I focus on five reasons.    President Clinton visited Ghana. So did President Bush and then, of course, President Obama visited Ghana. All of these point to the fact that Ghana and the U.S. now are friendly countries and therefore I think supporting elections in Ghana I would cite as something that friends with capacity help other friends do.    Secondly, Ghana does enjoy sort of immortal status in Africa on a few issues, from independence but also on holding elections and therefore it seems to me that whatever gains Ghana has made when it is assisted to maintain those gains the news spreads in Africa.    Other African countries do look at Ghana and therefore supporting Ghana's electoral processes will be a way for the U.S. to spread the word for democracy across the continent.    But there is another reason why. The previous elections in Ghana and what has been called the Fourth Republic, which started in 1992, 24 years ago, there have been six elections.    The one in November will be number seven. All six have been peaceful pretty much and power has been turned over to the party out of power on two occasions.    However, those have been very close elections and they have been disputed. Now, at the time they were called free and fair elections. We have had some instances where American experts have gone back, looked at some of the things and said well, maybe we missed this or that and therefore there is a strong case for making sure that now we look at the elections closely and don't miss any weaknesses that might be there.    A further reason is that 6 months away from Ghana's election if you look at what is happening on the ground now, there is heated campaigning. There are even people who have already said and have even complained to units like USAID offices and the Embassy that look, if things don't go well there might be violence.    Given that that has been said and given that Ghana has known political violence in its history this adds to the argument for saying that despite the reduction of looking at Ghana because of good elections this particular election needs assistance and attention from the United States. And the final argument that I make is this. The shifting resources and attention from Ghana to other African countries can be justified when they have greater needs. But another way of looking at it is that it is important to stay with Ghana and provide assistance in order to protect the investment and the gains that have already been made. So that is a final argument for that.    Now, I also took the liberty of suggesting a few ways for improving electoral assistance in Ghana. My colleague mentioned how late sometimes the funding comes. In my work in west Africa in promoting democracy we actually made the point that watching elections and balloting is important. But Ghana, for instance, has a 4-year cycle.    A lot of things happen before and after the balloting and therefore a key recommendation is projects have to be designed and have to be included in budgets to make sure that there are things being done both before and after elections, sometimes years before.    If you look at how elections are compromised in different countries including African ones, those who compromise elections are getting smarter by the day. So they don't steal the elections. They don't stuff the ballots so much. They can do things before we arrive at the elections. So it means that electoral programs should also be done during periods and looking at the processes before we actually vote.    And the final recommendation I will make, when you look at Ghana there are a number of competent NGOs and many of them are run by people who are friends of mine.    But I do think that the assistance to NGOs in Ghana needs to be diversified so that only a few favorite NGOs do not get all the assistance. Earlier, when the first panel discussed their submissions I noticed they talk about both IRI and NDI doing democracy work. I think that kind of ideological balance is also needed in countries including Ghana.    And I thank you again for doing this hearing on democracy including Ghana and inviting my views. I will be happy to answer any questions.    Thank you.</t>
@@ -766,11 +736,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -790,13 +758,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -816,13 +782,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -842,13 +806,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -868,13 +830,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -894,13 +854,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -920,13 +878,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -946,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -972,13 +926,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -998,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1024,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1050,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1076,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1102,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1128,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1154,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1180,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1206,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1232,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1258,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1284,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1310,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1336,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1362,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1388,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1414,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1440,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1466,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1492,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1518,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1544,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1570,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1596,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1622,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1648,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1674,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1700,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1726,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1752,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1778,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1804,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1830,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1856,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1882,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1908,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1934,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1960,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1986,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2012,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2038,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2064,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2090,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>74</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2116,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2142,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2168,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2194,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2220,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2246,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>74</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2272,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2298,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2324,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2350,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>80</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2376,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2402,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2428,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2454,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2480,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2506,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2532,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2558,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2584,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2610,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2636,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2662,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2688,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2714,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2740,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G78" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2766,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2792,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
-      </c>
-      <c r="G80" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2818,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2844,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2870,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2896,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2922,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2948,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2974,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>74</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3000,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G88" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3026,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>74</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3052,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3078,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>74</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3104,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
-      </c>
-      <c r="G92" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3130,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3156,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
-      </c>
-      <c r="G94" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3182,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3208,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3234,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>80</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3260,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20175.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20175.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order and first of all I want to say to our distinguished witness I apologize--and to our guests who are here--that we do have a series of votes that have just been called.    But I would like to get my opening comments. My good friend and colleague, Karen Bass, the ranking member, will join us immediately after the votes and then we'll just proceed with the hearing.    But thank you for being here. Thank you for your patience with this delay while floor votes occur.    The administration has increased funding for democracy in governance in Africa in the 2017 proposed budget by more than $168 million from the actual Fiscal Year 2015 funding.    Many of us in Congress, realizing the importance of helping to facilitate free, fair and transparent elections in Africa, have long supported funding increases in this area. So it's very much welcomed.    However, there are questions concerning the effective use of funds. According to the administration's budget explanation for Fiscal Year 2017, ``priority countries in Africa are falling behind in democracy, human rights, and governance, showing the deepest declines compared to other regions in the past 5 years.''    The administration seems to have declined to intervene significantly in countries important to the U.S. interests such as Ghana, Equatorial Guinea, and Djibouti. Using Ghana as an example where the democracy funding request dipped slightly for Fiscal Year 2017, this hearing will examine U.S. electoral policy moving forward.    In recent years, there has been a troubling trend in Africa toward leaders changing constitutions to allow them to run for a third term, not previously provided for in the law.    The administration indeed has urged the Presidents of Burundi and Rwanda, for example, not to go for a third term. Neither leader heeded the call for restraint in this regard.    In Burundi, the third term has caused serious upheaval and violence, resulting in an attempted coup, killing dozens of people, a crackdown on civil liberties and nearly 484,000 people internally displaced or seeking asylum in other countries. This situation was caused by an election many felt was unacceptable.    Other leaders, taking the Burundi and Rwanda example, are trying to seek extensions of their term in office as well. For example, Democratic Republic of the Congo's President Joseph Kabila is faced with a Constitution that not only limits him to two terms but prevents him from changing the Constitution to accommodate extending his rule.    However, President Kabila's government is taking it slow in preparing for scheduled elections in November and is trying to undo the Constitution by requiring his continuing in office past the December 19 expiration of his mandate despite the constitutional restrictions.    There was violence caused by an earlier Kabila attempt to change the Constitution and it has been widely predicted including by our own U.S. Department of State that even greater violence would result if the Kabila term is extended despite the constitutional bar for a third term.    Even when election processes improve, problems can develop that cause mistrust which can lead to rejection of an election results and to more violence.    Such results don't fade away easily. In Ghana, extremely close elections in 2008 led to mistrust of the process, especially when one district had to revote and held the key to who would be President.    Four years later, advanced biometric technology failed, casting further doubt in the minds of some voters. As one of our witnesses today will share with us, there are concerns for the elections later this year based on an accumulation of suspicions from past elections, even though the 2008 and 2012 were not judged by international observers to be particularly problematic.    The case of Ghana points out key questions. When does the international community enter an election process and when does it exit? When do we know whether elections in a particular country need no further intervention? Does intervention have to be massive or are there tweaks in capacity building we can provide that will help make all the difference between an acceptable election or one in which voters refuse to accept the outcome?    Election support is not merely a matter of money. It involves faith in the transparency and the fairness of the election process itself. The international community cannot achieve such trust among voters on our own.    The country in question must experience a meeting of the minds between the ruling party and the government and the political opposition.    There must be clear effective rules for elections that create a level playing field for all candidates and parties involved in the election process. Whatever flaws there may be in any election, the losing candidate must accept a legitimate loss and prepare for the next election.    We look forward to hearing from our distinguished government witnesses about their strategies to effectively help governments hold free, fair, and transparent elections, and we look forward to our private witnesses as well to tell us how our strategies are working, what their recommendations are on how to make it even better.    Again, we do have votes and the subcommittee will stand in recess for a brief period of time.    [Recess.]</t>
   </si>
   <si>
     <t>412672</t>
   </si>
   <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Donovan [presiding]. I apologize to our witnesses and our guests. We just finished voting. Chairman Smith had another obligation. So my name is Dan Donovan. I'm a member of the Committee on Foreign Affairs and a member of the Subcommittee on Africa, Global Health, Global Human Rights, and International Organizatons and I'll be conducting the hearing.    Let me introduce our first panel of witnesses. Ambassador Bruce Wharton, United States Department of State. Ambassador Bruce Wharton joined the African Bureau as Principal Deputy Assistant Secretary in December 2015.    In his last assignment he served as the U.S. Ambassador to Zimbabwe from September 2012 to November 2015. He has served in several other positions with the African Bureau and in the Bureau of International Information Programs.    Ambassador Wharton entered the Foreign Services in 1985 and has served in U.S. Embassies in Argentina, Chile, Bolivia, South Africa, Guatemala, and Zimbabwe. In Africa he has also worked in Tanzania, Nigeria, Kenya, and Ghana.    Mr. Thomas Staal is currently the acting Assistant Administrator for the Bureau of Democracy, Conflict, and Humanitarian Assistance at USAID.    He has worked for USAID since 1988, beginning in Sudan as an emergency program officer, and has worked in the USAID regional office in Kenya managing food aid and project development throughout eastern and southern Africa.    Most recently, Mr. Staal served as the USAID Mission Director in Ethiopia. Before joining USAID he worked with World Vision as their country representative in Sudan.    Our third panelist is Mr. Steven Feldstein, U.S. Department of State. He is a Deputy Assistant Secretary of State in the Bureau of Democracy, Human Rights, and Labor where his primary responsibility is for work in Africa on international labor affairs and international religious freedom.    Previously, Mr. Feldstein served as the director of the Office of Policy in the Bureau of Policy, Planning, and Learning at USAID and served as counsel on the Senate Committee on Foreign Relations where he oversaw a portfolio that included oversight over all U.S. foreign assistance agencies, budgets and programs, State Department management and operations, and international organizations.    I welcome all our panelists today and I thank you for your testimony you're about to give. So we'll start. Mr. Wharton, if you would give your remarks for the 5 minutes, Ambassador. Thank you very much.    Ambassador Wharton. Thank you very much, Mr. Chairman, and members of the subcommittee, for the opportunity to testify today on democracy support strategies for Africa.    While the people and governments of Africa have made significant strides in recent years, they and we must still address the challenges associated with the closing of political space in certain countries.    Over the next few minutes I would like to talk about both the progress that's been made and where more work still remains to be done.    Our country has long been committed across administrations and party lines to partnering with the people and governments of Africa to promote democracy, human rights, and good governance.    Strengthening democratic institutions is in fact the first pillar of President Obama's 2012 Presidential Policy Directive for Africa.    Now, in the past year there have been political openings and electoral successes in countries ranging in size from Cape Verde to Nigeria and including Burkina Faso, Senegal and Benin.    I have had the honor of being part of U.S. delegations to several of the recent Presidential inaugurations. An election itself, though, is neither the beginning nor the end of democratic process.    Even the democratically-elected leader may choose to ignore term limits, may manipulate the electoral process for personal advantage or may impose restrictions that impede opposition.    We face such situations in Burundi, the Democratic Republic of the Congo, the Republic of the Congo, Rwanda, and Uganda, just to name a few. It's vital that the United States stay the course with policies and programs that foster democracy in the long run, no matter how great the challenge.    And democracy does not happen overnight. Instability, insecurity, corruption, and inequality stand in the way and that is why we must engage in aggressive diplomatic and assistance efforts to help resolve conflicts, implement peace agreements, support elections, and preserve democratic space and we have seen some successes.    In the Central African Republic, for example, the recent peaceful election of President Touadera and the continuing democratic transition are positive steps. But sustained international attention is essential to ending the cycle of violence and helping create long-term stability.    We are helping to build CAR's judicial structure including development of its special criminal court. We are focusing on community-level peace and reconciliation and expanding access to justice through legal training and mobile courts.    Nigeria's 2015 elections were historic not just for sub-Saharan Africa's most populous country and largest economy but for the entire continent.    We work very hard up front at the highest levels of the administration to impress upon all parties the need for an election that was free, fair, credible, and peaceful and this is what Nigeria delivered.    People showed up early to vote, stayed late to ensure their votes were counted, and ultimately elected a new government. This was the first peaceful democratic transfer of power to an opposition party in Nigeria in history and U.S.-Nigerian relations are stronger today than they have been in many years.    Now we stand ready to support the commitments Nigeria made this month at the UK Anti-Corruption Summit on issues such as beneficial ownership, fiscal and tax transparency, asset recovery and open contracting.    Opportunities and challenges abound. No fewer than 16 African countries have national elections this year. We will continue to support regular democratic transitions of power and speak out against those in power who seek to change constitutions to extend their own tenure.    Regular democratic transitions provide opportunities for Africans to participate in the political process and hold their governments accountable while contributing to the stability across the continent.    Transparent and credible elections help prevent feelings of injustice and alienation that can lead some to extremism and violence. In advance of elections, we support programs to counter violence and promote reconciliation, working with leaders from diverse political, religious, and ethnic groups to promote tolerance, respect, and reform. It is clear that those investments pay dividends.    We greatly appreciate the subcommittee's recognition of the fundamental importance of democracy in Africa and again ask your help in supporting our relevant funding requests.    We are working to ensure that the fiscal 2016 allocations for democracy, rights, and governance in Africa reflect the most strategic allocation of scarce resources. We know the challenges are great but believe that the comprehensive approach we are pursuing is making progress and this will ultimately benefit the people of the United States as well as the people of Africa.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
@@ -67,12 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Staal</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Staal. Thank you, Chairman Donovan, members of the subcommittee. Thank you for the opportunity to appear before you today.    As part of our mission to end extreme poverty and promote democratic resilient societies, USAID is a leader in democracy assistance around the world including in Africa.    Several countries saw progress in the conduct of elections since the subcommittee held a hearing on this subject last year including in Nigeria, Cote d'Ivoire, Burkina Faso, and the Central African Republic.    Many national and regional institutions have improved their capacity to facilitate credible elections including electoral bodies we supported in Nigeria and Cote d'Ivoire. Citizens are more engaged and connected than ever.    With our support, domestic election observers are leveraging innovative technology and carrying out advanced parallel vote tabulations--PVTs--to confirm election results.    In Nigeria, we trained 3,000 domestic monitors to do PVTs and also in Zambia and Cote d'Ivoire. Yet, Africa still faces important challenges. The youth desperately want the chance to have a say in their future. But several African leaders refuse to pass the baton.    The average age of the 10 oldest African leaders is 78\\1/2\\ years old while the average age of an African citizen is just 19\\1/2\\.    The trend of abolishing or extending term limits continues and incumbents are employing tactics to create an uneven playing field long before they face the election.    Leaders are, unfortunately, sharing worst practices including using surveillance technologies and imposing complex legal and fiscal restrictions on civil society and the media.    As more citizens go online, authorities are restricting Internet access, as we saw last week during Uganda's Presidential inauguration. Recent crackdowns like the ones we've seen in Burundi, Uganda and the Democratic Republic of the Congo are not only a threat to democracy but to regional security.    For decades, USAID has supported African reformers and citizens who seek to promote good governance and democratic processes. Our support helps build the enabling conditions for credible elections to take place--strong judiciary and legislature, competitive parties, a free press and free Internet and an engaged civil society.    These efforts would not be possible without our partners including those testifying later today and our local African partners play a critical role in sustaining democratic gains as well.    Our strategic approach to electoral assistance is informed by several lessons learned over the last number of years.    First, USAID's electoral investments are tailored to the specific political context in and out of the country and informed by long-term partnerships with the host government and civil society to support the foundations of a democratic movement and a democratic government.    For instance, the positive impact of our electoral efforts in Nigeria and Zambia were the result of many years of sustained engagement in broader democracy assistance in both countries.    USAID's democracy officers across our missions in Africa help us maximize the opportunity to expand democratic gains and overcome challenges.    Second, our long-term electoral assistance is coupled with flexibility to respond to unforeseen challenges and windows of opportunity. For example, in Guinea's elections we quickly mobilized our elections and political processes funds to keep reporters broadcasting the vote count. This reassured the public and opposition parties that the process was fair.    Third, our early and robust conflict mitigation efforts have made a difference in averting electoral violence. For example, we supported the West Africa Network for Peace Building's early warning system to mitigate trigger points for electoral violence, for instance, in Burkina Faso.    In Cote D'Ivoire, USAID's Office of Transition Initiatives mobilized a successful arts campaign to promote peaceful political participation and in Nigeria, we integrated conflict mitigation across all of our multi-year programs.    And fourth, we proactively empower political parties, civil society and the media to combat efforts by incumbents to close the space for political engagement.    As part of President Obama's Stand With Civil Society Initiative we are creating a hub for African civil society to share tactics and successes to overcome common restrictions that they face.    Our global Information Security Coalition has trained and mentored African organizations and individuals in digital and mobile security.    And then, finally, we coordinate closely with our diplomatic and donor partners to maximize impact as we did in Nigeria to ensure that displaced populations could vote and CAR to promote local peace building before the elections.    So as we look ahead, we will seek to sustain democratic gains in Ghana, in Zambia, and other countries; promote peaceful and inclusive elections, in Kenya; and encourage a timely and credible election timetable in the DRC, in partnership with democratic reformers.    Thank you very much and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you very much for your opening statement, Mr. Staal.    The Chair recognizes Mr. Feldstein for an opening statement.</t>
   </si>
   <si>
+    <t>Feldstein</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Feldstein. Thank you, Mr. Chairman, Ranking Member Bass and members of the subcommittee for the opportunity to testify today.    Advancing democracy in Africa is a top priority for the administration. In the last year we have seen significant democratic advances in several countries.    Nigeria, for example, held successful elections last year that led to the country's first democratic transition between parties since the end of military rule.    Similarly, I just returned from a trip to Burkina Faso and the Central African Republic where both countries elected reform-minded Presidents. Each country now has a moment of opportunity to enact bold reforms and build democratic foundations.    Despite these positive developments, democracy in other parts of Africa has deteriorated. In too many places the pre-electoral environment and the space available for civic participation remains restrictive and flawed.    Too many entrenched leaders continue to manipulate their countries' constitutions, judiciaries and electoral processes to indefinitely extend their time in office.    They systematically thwart citizens' rights to choose their leaders without pressure or fear and those who protest in the street are arrested, detained, tortured and beaten.    Recent events in Uganda illustrate how a government can curb fundamental freedoms and eviscerate the credibility of an electoral process. Leading up to and following the February 18th elections, the Government of Uganda harassed and arrested opposition supporters, restricted media, and pressured civil society.    During the contest itself, Uganda blocked social media and limited communications. In the days following the elections, security forces held opposition candidate Besigye under house arrest for 42 days. The government arrested Mr. Besigye again last week, the day before President Museveni's inauguration.    He has reportedly been charged with treason and transferred to a maximum security prison in part because of his demand for an independent international audit of the election.    Uganda has banned all live reporting of opposition party protests and arrested dozens of others. The government has also put forward a bill that would give it outright power to control communications.    We have repeatedly urged the government to protect and preserve the basic freedoms of citizens and will continue to do so.    I recently visited Burkina Faso, which is an example of a country where a leader's overreach led to unrest and ultimately his removal from power but also where we are partnering with new leadership to chart a more democratic way forward.    A vibrant civil society led by an energized youth movement of artisan musicians--Le Balai Citoyen or Citizen's Broom--broke 27 years of one-man rule and gave rise to the country's first democratic elections since 1978.    As Burkina Faso takes a step forward, other leaders in the region continue to undermine democracy by changing constitutions and using additional means to extend their stay in office.    For example, Rwanda President Paul Kagame has repeatedly stated his commitment to respect constitutional term limits and to mentor a new generation of leaders. We were deeply disappointed when earlier this year Kagame announced his intent to stand for a third term and held a snap constitutional referendum to cement this decision.    In making this choice, he missed a significant opportunity to deepen democracy in Rwanda and demonstrate global leadership.    The violence currently afflicting Burundi is a revealing example of how anti-democratic policies, namely violating the Arusha Accords by running for a third term, can rapidly lead to widespread human rights violations, civilian casualties and increased risk of mass atrocities.    The ongoing crisis in Burundi has resulted in hundreds of lives lost and over 260,000 refugees fleeing the country. Burundi has experienced 10 years of progress in reconciliation and development but is now deeply destabilized and struggling with a crumbling economy.    Burundi is a cautionary tale for the unfolding political crisis in the neighboring Democratic Republic of the Congo. According to the DRC's Constitution, the President is limited to two terms in office.    Elections are scheduled for November 2016 at which point the DRC should experience its first democratic transition in power which would mark a monumental step toward solidifying the DRC's fragile democratic progress.    Instead, President Kabila is delaying elections through a strategy of ``glissement,'' or slippage, and refusing to announce his intention to step down at the end of his term.    The government continues to undermine the democratic process by harassing, arresting and intimidating civil society and opposition leaders.    Security forces are increasingly willing to use excessive force including against peaceful protestors. This combustible combination threatens the security of the DRC and the broader stability of central Africa.    We believe that officials within the DRC Government have the individual responsibility to uphold human rights. We have repeatedly made clear that the U.S. is prepared to impose targeted sanctions against those responsible for human rights violations or propagating violence and we do believe the voices of the Congolese people should determine the future of the Congo.    I'd like to highlight a final issue: Fighting corruption and kleptocracy. In too many countries, the rent-seeking opportunities of elected office provide a lucrative incentive for entrenched leaders to steal from state coffers and cling to power.    Unfettered access to state resources personally enriches rulers with ill-gotten gains and provides leaders with the means to buy the loyalty needed to sustain power.    In conclusion, we will continue to advance a democracy strategy with a strong emphasis on respect for the rule of law, human rights and civil society.    To be successful, we need sufficient resources to support our efforts and we appreciate your support.    Thank you for the opportunity to address the committee today and I look forward to your questions.</t>
   </si>
   <si>
@@ -100,6 +121,12 @@
     <t>412404</t>
   </si>
   <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chair.    I want to follow up on a couple of questions with Mr. Staal.    The chair was asking you questions about some of the contracts and all democracy related and I just wanted to ask you if we give any contracts to for-profit organizations to help with democracy and election U.S.-based and also do we provide any contracts to indigenous groups in various countries where we're working?</t>
   </si>
   <si>
@@ -190,6 +217,12 @@
     <t>412604</t>
   </si>
   <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clawson. Lost in thought. From a 30,000 foot level, seems to me that assistance for the continent for medical care: Ebola, malaria, all the mosquito-borne stuff--sounds like that's something America would do. Europeans step up. I like that. Anything that could protect property rights and therefore induce investment. That sounds like a long putt but good idea because if we don't get investment because everybody just makes off with the cash the average person is never going to get a lot better life. I think you all agree with that too.    American money for elections, I remember living in Europe and in France in the 1990s and looking down at the continent. I remember doing business on the continent and always saying what a mess in terms of elections. Human rights, kleptocracy.    Do we get our bang for our buck on that part of it? If I said to you all show me the money we spent in the 1990s, Ambassador--we spent a lot of money in the 1990s in places that aren't any better and sometimes worse, right? Am I right or wrong about that?    Are we really getting better, given all the American tax money? No one likes a zero return on investment. What matters to me is a net gain and I feel like we do net gain on healthcare and other direct assistance for people that really need it.    But I'm not so sure that in the dictators we've supported or elections that we've tried to help that we really get a direct return on that. Am I right or wrong? And I'm sure you're going to tell me I'm wrong and I'll accept your answer.    Ambassador Wharton. Congressman, I would never tell you that you were wrong but I could beg----</t>
   </si>
   <si>
@@ -211,22 +244,34 @@
     <t xml:space="preserve">    Mr. Clawson. Agree with all that. Just hope we get it right. Because if we support the bad guys it's the big men or the strong men, they make off with the cash then you got a whole bunch of people that aren't getting food and blame it on the U.S. because we're propping up crooks and I don't think that helps us either.    So, you know, this is a tough task you all got. Humanitarian, private property, investment--I'm all for that. Thank you. I yield back.</t>
   </si>
   <si>
+    <t>Nackerdien</t>
+  </si>
+  <si>
     <t>director for Africa in Washington, DC.    Before returning to headquarters, Mr. Tomaszewski spent several years living on the African continent and managing various projects for IRI, focussing on political party strengthening, local governance, and civil society development, youth and gender initiatives and civic education in many African countries. He has also worked for two Members of Congress including on their campaigns.    Mr. Nii Akuetteh serves as the founding executive director of the African Immigrant Caucus. He has lived in Nigeria and contributed to the strengthening of democracy across West Africa.    He has also founded the Democracy and Conflict Research Institute, an NGO that focuses on fighting dictatorship and repression in Africa. Mr. Akuetteh worked on a anti-apartheid movement in the U.S., which led to the sanctions imposed against apartheid South Africa.    He has taught at Georgetown University and served as the editor of a quarterly journal on U.S. relations with Africa and the Caribbean. Gentlemen, thank you.    I now invite our first witness, Mr. Nackerdien, to give his opening statement.    Mr. Nackerdien. Thank you. Mr. Chairman, on behalf of the International Foundation for Electoral Systems, I deeply appreciate this opportunity to discuss U.S. electoral support in sub-Saharan Africa.    Since 1997, IFES has worked in more than 145 countries worldwide to support inclusive citizen participation and credible elections. In many parts of the world, IFES works with its partners, IRI, and NDI, and the Consortium for Elections and Political Process Strengthening, commonly known as CEPPS, on democracy, human rights, and governance programming.    With support from USAID and several international partners, IFES has supported electoral processes across the subregion with 11 active programs in Burkina Faso, Cote d'Ivoire, Guinea, Kenya, Liberia, Mali, Nigeria, Tanzania, Uganda, Zambia, and Zimbabwe.    Mr. Chairman, in the last decade policy makers worldwide have come to understand that elections are much more than just election day and this has resulted in an important shift in the policy process.    I draw your attention to one of the poster boards that I've brought along, particularly the colored wheel. It's commonly referred to as the electoral process and today we understand the process to break down into three broad phases--namely, the pre-electoral, the electoral, and the post-electoral period.    Typically, this process often runs 3 to 5 years and is a lengthy endeavor. Mr. Chairman, elections have been described as the biggest logistical exercise a country can undertake during peacetime.    In most African countries, this exercise is done by a single election management body operating independently from party influence.    If one takes the example of Nigeria, which is the poster board just being turned right now. For the 2015 polls the Independent National Election Commission employed more than 12,000 permanent members of staff and more than 700,000 temporary staff.    All of these helped serve more than 6 to 8 million citizens that had to be registered, that had to be verified and they had to cast a vote on election day.    This huge logistical and political exercise cannot be executed overnight. INEC was preparing for this since 2011, 4 years in the making across the electoral cycle.    This work was done in close partnership with organizations like IFES and all this occurred under the threat of attacks by Boko Haram.    Mr. Chairman, IFES believes the following four areas are pivotal when it comes to election assistance. Number one, due to the complexity of organizing an election, targeted resource support must take place early in the electoral cycle--several years before election day.    Number two, just as we combat extremism on a regional basis, so we should invest regionally in capacity building and building in particular election networks among election professionals.    Number three, working with civil society is equally essential. Civil society plays an important role in the electoral cycle not only for carrying out civic and voter education activities but also for holding governments and electoral institutions accountable.    Number four, in recent years DRC funding has either been redirected toward other priorities or has been increasingly divided across smaller sub parts, leaving decreasing investments for election and political process programming.    IFES believes that the U.S. Government should reverse this trend, amplifying investments in election assistance as a cost effective way to pursue additional development objectives.    Mr. Chairman, the electoral cycle approach can make election international assistance seem never ending. However, three critical points of exit or graduation from support do exist.    Technical sustainability is considered the easiest to achieve. It describes a time when a country requires no further external assistance for the conduct of elections.    Financial sustainability is the second component and the second hardest to achieve. This is achieved only when the funds for elections are derived from in-country sources. And lastly, political sustainability is the most difficult to achieve.    It is based on the legitimacy of the entire process as well as the institution when both the outcome and the process are viewed as credible by all stakeholders both foreign and domestic.    Mr. Chairman, a number of critical upcoming elections in Cote D'Ivoire, the Democratic Republic of the Congo, Gambia, Ghana, Kenya, and Zambia will help shape democracy on the continent.    We respectfully recommend that the U.S. Government prioritize electoral assistance that is locally contextualized, is inclusive of women, people with disabilities, ethnic and religious minorities and other underrepresented groups, develops local expertise and consistently invests early and throughout the electoral cycle.    Such assistance will not only facilitate Africa's navigation of very difficult times but might prove foundational to improve development outcomes in women's empowerment, health, economic growth, and food security.    Mr. Chairman, in conclusion, thank you for this opportunity to testify. On behalf of IFES we are honored to partner with the U.S. Government and Congress, international aid organizations, our CEPPS partners, and of course the people of Africa in support of a more democratic and prosperous continent. I'm happy to answer any questions stemming from my testimony. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, sir.    The Chair recognizes Mr. Merloe for a 5-minute opening statement.</t>
   </si>
   <si>
+    <t>Merloe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Merloe. Thank you, Chairman Donovan and Ranking Member Bass. I'd like to also thank Chairman Smith for his opening remarks which demonstrate the leadership of this subcommittee in expressing the concerns of the American people for the development of democracy and honest elections in Africa.    Our time is short so I'd like to start with one thing that illustrates the points that I would like to make today. Two weeks ago I was the fortunate party to an exchange between former President Obasanjo of Nigeria and Mr. Kofi Annan, and I could summarize it more or less as follows.    It's not so much that poor elections give a bad name to democracy as it is that political violence and undemocratic practices give elections a bad name.    That quip encapsulates two of the most fundamental things about elections as far as I can see. The first is it captures the essence of elections--the two purposes that are interrelated--that they should resolve peacefully the competition for governmental office and political power. And, they should provide the citizens with the avenue, the vehicle, through which they express their will about who is going to have the authority to legitimately occupy governmental offices.    These are not easy things, particularly in countries that have less than a longstanding democratic history and that have a proclivity among the political competitors toward using political violence to achieve their goals.    We see that too often in Africa and around the world. Elections that are democratic really establish public confidence, and they also reduce and mitigate the potentials for political conflict. In that respect they help the realization of political rights of sovereign people.    They also are important for international peace and security, and both of these are vital to the interests of the American people and people around the world, which is why today's hearing I think is so important to public concern.    The second point that that quip illustrates is that elections are all about context. As you know, elections really are a barometer of the political climate in a given country as is illustrated even in our own circumstance.    Elections are multi-dimensional reflections of social and political dynamics within a country, and in that sense electoral assistance should help to infuse democratic political culture.    Three principals in electoral assistance are very important then to encapsulate. The first is inclusiveness. Political systems and electoral processes should help to guarantee universal and equal suffrage. They also should move political systems beyond winner take all politics and give the opposition, the losers, a stake in sustaining and building effective governance.    The second principle is transparency. People have a right to general elections. They also have a right to know that their elections are genuine, and that requires that there be access to key political processes, key electoral processes and the data which are generated by them, so that they can independently verify for themselves the integrity of elections.    And the third principal is accountability. There has to be, to be credible, accountability in election administration, in political competition and also in the electoral justice system so that the competitors who have a grievance have a reason to turn to peaceful redress rather than to actions that might lead to violence.    These principles reinforce the potentials for sustained and positive democratic progress. They should be signposts for our engagements. Strengthening them should be a means of evaluating our success.    In my written statement I mention three countries that illustrate how these principles have been integrated into electoral assistance in recent years.    In particular, Kenya, Cote d'Ivoire, and Nigeria stand out. There are many others but they are worthy of consideration. I won't mention details here, but I will be happy to go into during questions.    They each give positive examples of where U.S. support was complemented by assistance from other nations from the EU, the U.N. and others, and as my colleague from IFES mentioned, they each illustrate early targeted engagement, and they each illustrate that follow-up made a big difference.    Mr. Chairman, not all countries receive adequate funding to address the needed and pressing causes around elections. Democracy and governance funding has faced several years of cutbacks, as you well know--particularly in Africa which was reduced by more than 40 percent last year.    Those cuts have impacted the ability to respond to requests to monitor elections, to help develop civil society and political parties and to strengthen the fragile parliaments in those countries.    Hopefully, these cuts can be restored in Fiscal Year 2016 and beyond as Congress has sought to do through the omnibus appropriations bill.    Citizens across the world have been putting themselves on the line, demanding honest elections and responsible and responsive governance. They have been asking for our assistance which demonstrates that democracy is coming--the demand for it is coming--from within. It's not being imposed.    A number of cost-effective means of engagements have proven to be effective in promoting credible peaceful elections in Africa. In my written statement I identify 10 of those, and let me please highlight three this afternoon.    The first is supporting indigenous efforts to remove barriers to political participation of women, including young women, young men and disabled people and other populations.    Second is building cohorts of citizen election monitoring experts who can move across borders and through the regions, helping each other, building the impartiality and the systematic nature of election monitoring.    As was mentioned by our colleagues from USAID, parallel vote tabulations--that is, an independent verification using statistical methods of election day processes and the vote count--have been critical in reducing tensions around elections--the potential for violence, and in building public confidence in elections. That's one illustration.    But, of course, the voter registry in other areas are growingly important to verify as well.    The third is to advance principles and standards through networks of the EMBs, election monitoring organizations, political parties and others, including through open electoral data and other principles that reinforce the integrity of elections.    Constitutional issues that have been mentioned concerning the term limits, the dispersing of powers among branches of government also are important to give people stakes and to be inclusive in governance.    All of these issues are related to circumstances where power is abused, where decks are stacked, where corruption subverts government's ability to improve citizens' lives, and these turn citizens away from government toward apathy, toward authoritarianism and toward extremism.    It's therefore, in conclusion, in our common interest, to help homegrown efforts to address electoral integrity.    Mr. Chairman, among the numerous elections in Africa that are on the horizon, I would highlight five that merit further consideration perhaps in questions.    Zambia and Ghana, which have been mentioned. I'm departing on Friday for Zambia. I'm going later in the month with Mr. Kofi Annan to Ghana because of his concerns around developments in that country. Cote d'Ivoire and Kenya, where we have invested so much, where electoral violence has cost the people so much, and where these investments really can be threatened--particularly in Kenya with the crisis that's been developing.    And of course, in the Democratic Republic of the Congo, where in a sense a perfect political storm has been brewing, as been mentioned by my colleagues earlier.    In all of these countries, developing democratic political processes is key to achieving credible peaceful elections, and engagements that promote inclusiveness, transparency and accountability must be tailored to their context. Those principles are central for successful democracy support strategies in Africa.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Merloe.    The Chair now recognizes Mr. Tomaszewski for a 5-minute opening statement.</t>
   </si>
   <si>
+    <t>Tomaszewski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tomaszewski. Chairman Donovan, Ranking Member Bass, thank you for this opportunity to testify before you today on effective democracy assistance on the African continent.    IRI currently works in 14 sub-Saharan African countries with grants from USAID, State Department, and the National Endowment for Democracy.    IRI is also a partner of the CEPPS consortium, which you've heard about today. As a former country director for IRI's Kenya office and a deputy country director in South Sudan and Egypt, I've seen firsthand the impact of democracy assistance. Direct impact.    Mr. Chairman, Africans today are largely committed to democracy over other forms of government. According to a 2014 analysis, Biafra barometer, 7 in 10 Africans prefer democracy and a proportion of those rejecting alternatives rose steadily over the past decade.    African nations that remain undemocratic grappled with protracted conflict, transnational migration, corruption and leaders who, despite the outward appearance of being democratic, maintain their hold on power to the detriment of their population.    We must fully appreciate the link between failures of governance, refugee flows and the draw of extremist groups like ISIS, al-Shabaab, Boko Haram across the continent. A secure and stable Africa is of paramount national security to the United States.    The development of functional and institutionalized democratic systems is the only way to ensure that in the long term African countries will be equipped to meet the needs and expectations of their rapidly growing populations.    Nigeria, for example--and it's an example we've talked a lot about today--is of great strategic importance to the United States. The country's 2015 elections are a good case study indeed for effective U.S. democracy assistance.    Since Nigeria's 1999 return to citizen rule, IRI and its CEPPS partners have implemented DRG programs to strengthen capacity of the ruling and opposition parties, election management bodies, civil society, the media and, most importantly, the voters.    In the end, and despite some of its shortcomings, the election resulted in the peaceful handover of power from the incumbent President Jonathan to the now-President Buhari.    Mr. Chairman, the importance of this outcome for Africa's most populous country cannot be overstated. This peaceful transfer of power was not the result of a single election but a series of regular and sustained electoral contests for President that enabled the system to mature and become more democratic over time.    U.S. assistance through IRI, NDI, IFES, and our local partners has made a significant contribution to this successful outcome.    Mr. Chairman, in spite of these successful programs, however, the environment in which we operate--our organizations--including the political and operating context, funding levels and administrative landscape presents substantial challenges.    Our experience shows that DRG funding for Africa ramps up in advance of elections. Of IRI's current USAID and State Department funded programs in Africa, 80 percent focus substantially on support to electoral processes.    In each case, funding for the inner electoral period is uncertain. Elections are seminal events indeed in democratic societies, and we must recognize that fundamental democratic deficits in political systems lie in the day-to-day business of governments and their relationships with citizens between elections.    Where democracy assistance is limited to electoral processes, the funding often becomes available to implementers late in the pre-election period. For instance, in Tanzania the CEPPS partnership received funding in June 2015, only 5 months prior to the October 2015 elections.    Similarly, in Uganda, where we've just had a very interesting election, the CEPPS partners received funding in late May 2015 for February 2016 elections. In both cases, DRG support in the post-election period has not yet been determined, though it is critically needed for both countries, I think we would all agree.    Furthermore, over the last few years, IRI has experienced firsthand the realities of a challenging funding landscape. DRG programs account for only 4.7 percent of overall foreign assistance.    Total U.S. Government support for DRG programs has been on the decline, falling by 38 percent between 2009 and 2015, with Africa receiving a 44 percent cut during that period, according to an analysis by InterAction.    At this important juncture in Africa's development, now is the time to reinforce our commitment to resilient democracies by funding DRG programs at robust levels.    Finally, and this is something that's been commented on already, selecting the appropriate procurement mechanism for DRG awards is an essential component to achieving impactful sustainable results.    USAID has released a revised ADS Chapter 304 and we understand we'll be providing USAID employees with amplifying guidance on the applicability of ADS 304 to DRG awards.    We commend USAID for taking this action and urge that USAID Missions implement the new regulations as intended and that both USAID and Congress conduct applicable oversight.    Mr. Chairman, in his historic 1982 Westminster speech--and I have to talk about President Reagan--and at the height of the Cold War, President Ronald Reagan said of democracies, ``Day by day, democracy is proving itself to be a not at all fragile flower.''    I share President Reagan's optimism that with effective U.S. assistance, IRI and its partners, can have a large impact in consolidating democracy in Africa.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Tomaszewski.    The Chair now recognizes Mr. Akuetteh for an opening statement.</t>
+  </si>
+  <si>
+    <t>Akuetteh</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Akuetteh. Thank you very much, Chairman Donovan and Ranking Member Bass. I really appreciate not just being included in this panel but as always for all the work that this committee and subcommittee does.    This time, particularly, I'm extremely happy for two reasons--because of the focus on democracy and U.S. democracy assistance programs in Africa it's very dear to my heart and, of course, I have been included to talk a little bit more about the country where I was born--Ghana.    Now, Ghana has enjoyed a lot of kudos and praise, particularly when it comes to elections and turning over power peacefully to parties that are out of power who win elections and I think those kudos are well earned.    The question that has been raised, especially when it's been mentioned that DRG programs have been cut, is that there have been times when the thinking is that Ghana does a good job and therefore U.S. assistance should focus on more challenged countries on the continent.    It is true there are countries that are not doing as good a job. But I am here to make the case why attention should not be shifted from Ghana and where it has been shifted it should be refocused back particularly for the upcoming elections which happen a day before the U.S. elections in November. Ghana votes on November 7.    And there are a couple of reasons that I want to cite. In my own lifetime, I have seen political violence in Ghana in the early 1960s and 1970s and therefore nobody should think that electoral political violence Ghana is immune to those. They are not.    What will make them immune is good processes and transparency. Now, when it comes to what are the actual reasons for focusing and looking at Ghana now, which is what I was asked to address, I focus on five reasons.    President Clinton visited Ghana. So did President Bush and then, of course, President Obama visited Ghana. All of these point to the fact that Ghana and the U.S. now are friendly countries and therefore I think supporting elections in Ghana I would cite as something that friends with capacity help other friends do.    Secondly, Ghana does enjoy sort of immortal status in Africa on a few issues, from independence but also on holding elections and therefore it seems to me that whatever gains Ghana has made when it is assisted to maintain those gains the news spreads in Africa.    Other African countries do look at Ghana and therefore supporting Ghana's electoral processes will be a way for the U.S. to spread the word for democracy across the continent.    But there is another reason why. The previous elections in Ghana and what has been called the Fourth Republic, which started in 1992, 24 years ago, there have been six elections.    The one in November will be number seven. All six have been peaceful pretty much and power has been turned over to the party out of power on two occasions.    However, those have been very close elections and they have been disputed. Now, at the time they were called free and fair elections. We have had some instances where American experts have gone back, looked at some of the things and said well, maybe we missed this or that and therefore there is a strong case for making sure that now we look at the elections closely and don't miss any weaknesses that might be there.    A further reason is that 6 months away from Ghana's election if you look at what is happening on the ground now, there is heated campaigning. There are even people who have already said and have even complained to units like USAID offices and the Embassy that look, if things don't go well there might be violence.    Given that that has been said and given that Ghana has known political violence in its history this adds to the argument for saying that despite the reduction of looking at Ghana because of good elections this particular election needs assistance and attention from the United States. And the final argument that I make is this. The shifting resources and attention from Ghana to other African countries can be justified when they have greater needs. But another way of looking at it is that it is important to stay with Ghana and provide assistance in order to protect the investment and the gains that have already been made. So that is a final argument for that.    Now, I also took the liberty of suggesting a few ways for improving electoral assistance in Ghana. My colleague mentioned how late sometimes the funding comes. In my work in west Africa in promoting democracy we actually made the point that watching elections and balloting is important. But Ghana, for instance, has a 4-year cycle.    A lot of things happen before and after the balloting and therefore a key recommendation is projects have to be designed and have to be included in budgets to make sure that there are things being done both before and after elections, sometimes years before.    If you look at how elections are compromised in different countries including African ones, those who compromise elections are getting smarter by the day. So they don't steal the elections. They don't stuff the ballots so much. They can do things before we arrive at the elections. So it means that electoral programs should also be done during periods and looking at the processes before we actually vote.    And the final recommendation I will make, when you look at Ghana there are a number of competent NGOs and many of them are run by people who are friends of mine.    But I do think that the assistance to NGOs in Ghana needs to be diversified so that only a few favorite NGOs do not get all the assistance. Earlier, when the first panel discussed their submissions I noticed they talk about both IRI and NDI doing democracy work. I think that kind of ideological balance is also needed in countries including Ghana.    And I thank you again for doing this hearing on democracy including Ghana and inviting my views. I will be happy to answer any questions.    Thank you.</t>
@@ -686,7 +731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,7 +739,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,2333 +761,2735 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s"/>
       <c r="H23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G44" t="s">
+        <v>67</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G46" t="s">
+        <v>67</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G47" t="s">
+        <v>67</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G50" t="s">
+        <v>67</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G68" t="s">
+        <v>35</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
+        <v>35</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G76" t="s">
+        <v>35</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G78" t="s">
+        <v>35</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
+        <v>35</v>
+      </c>
       <c r="H80" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G82" t="s">
+        <v>35</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
+        <v>35</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
+        <v>35</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G88" t="s">
+        <v>35</v>
+      </c>
       <c r="H88" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G90" t="s">
+        <v>35</v>
+      </c>
       <c r="H90" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G92" t="s">
+        <v>35</v>
+      </c>
       <c r="H92" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>76</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G94" t="s">
+        <v>35</v>
+      </c>
       <c r="H94" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G96" t="s">
+        <v>35</v>
+      </c>
       <c r="H96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
       <c r="H98" t="s">
-        <v>107</v>
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20175.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20175.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412672</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Donovan</t>
   </si>
   <si>
@@ -119,6 +128,9 @@
   </si>
   <si>
     <t>412404</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Bass</t>
@@ -731,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,7 +751,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,2732 +776,2940 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I47" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>79</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>82</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>85</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>82</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>82</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>82</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>86</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H70" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>86</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H72" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>82</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>86</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>82</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H76" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>82</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>86</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H78" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>82</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>86</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H80" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>82</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>86</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H82" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>82</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>86</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H84" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>82</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>86</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>79</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>83</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H88" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>79</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>83</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H90" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I90" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>79</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>83</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H92" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I92" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>76</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>80</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H94" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I94" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J94" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>76</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H96" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>85</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>89</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>122</v>
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
